--- a/deliverables/Project03/Team02Report.xlsx
+++ b/deliverables/Project03/Team02Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/proj/gedcom-linter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/proj/gedcom-linter/deliverables/Project03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317FCAFD-5967-154F-9E0D-1FF187B0DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED81F46-6646-674F-95DF-D3E8B6ACD9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="198">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -666,7 +666,10 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>These initial stories should be fairly trivial to implement. More useful size/time estimates will be given for later sprints</t>
+    <t>irakliok</t>
+  </si>
+  <si>
+    <t>These initial stories should be fairly trivial to implement. More useful time estimates will be given for later sprints</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +1997,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2083,6 +2086,9 @@
       </c>
       <c r="D6" s="16" t="s">
         <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2560,7 +2566,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2618,10 +2624,10 @@
         <v>193</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2638,10 +2644,10 @@
         <v>193</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2658,10 +2664,10 @@
         <v>193</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -2678,10 +2684,10 @@
         <v>193</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2698,10 +2704,10 @@
         <v>193</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2718,10 +2724,10 @@
         <v>193</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2738,10 +2744,10 @@
         <v>193</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2758,10 +2764,10 @@
         <v>193</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2781,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -2796,7 +2802,7 @@
     </row>
     <row r="16" spans="1:9" ht="112" x14ac:dyDescent="0.15">
       <c r="B16" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
@@ -2949,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/deliverables/Project03/Team02Report.xlsx
+++ b/deliverables/Project03/Team02Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/proj/gedcom-linter/deliverables/Project03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED81F46-6646-674F-95DF-D3E8B6ACD9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45E539-DEBE-1040-A8BC-F65A99F5D525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="199">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>These initial stories should be fairly trivial to implement. More useful time estimates will be given for later sprints</t>
+  </si>
+  <si>
+    <t>jhornilla</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -845,6 +848,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1996,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2072,6 +2076,9 @@
       </c>
       <c r="D5" s="16" t="s">
         <v>186</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2565,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
